--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.564025673104</v>
+        <v>252.0655761681174</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.9442099394337</v>
+        <v>344.8872416614422</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.7951484996998</v>
+        <v>311.9716873696608</v>
       </c>
       <c r="AD2" t="n">
-        <v>215564.025673104</v>
+        <v>252065.5761681174</v>
       </c>
       <c r="AE2" t="n">
-        <v>294944.2099394337</v>
+        <v>344887.2416614422</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.481389075078944e-06</v>
+        <v>4.591219452360586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.122685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>266795.1484996998</v>
+        <v>311971.6873696608</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.7082979497798</v>
+        <v>164.1848400317074</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.1550567499119</v>
+        <v>224.6449414552146</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.9114864215614</v>
+        <v>203.2051435339491</v>
       </c>
       <c r="AD3" t="n">
-        <v>139708.2979497797</v>
+        <v>164184.8400317074</v>
       </c>
       <c r="AE3" t="n">
-        <v>191155.0567499119</v>
+        <v>224644.9414552146</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.359916768270625e-06</v>
+        <v>6.216725695991806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>172911.4864215614</v>
+        <v>203205.1435339491</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.2908388790888</v>
+        <v>152.5967887604242</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.5331855466557</v>
+        <v>208.7896584771116</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.7805446805051</v>
+        <v>188.8630665102418</v>
       </c>
       <c r="AD4" t="n">
-        <v>128290.8388790888</v>
+        <v>152596.7887604242</v>
       </c>
       <c r="AE4" t="n">
-        <v>175533.1855466557</v>
+        <v>208789.6584771116</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.69487908457721e-06</v>
+        <v>6.836493679126666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.111689814814816</v>
       </c>
       <c r="AH4" t="n">
-        <v>158780.5446805051</v>
+        <v>188863.0665102418</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.6307120926565</v>
+        <v>135.0219133200125</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.3698209676641</v>
+        <v>184.7429385507692</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.9232977034296</v>
+        <v>167.1113317838785</v>
       </c>
       <c r="AD5" t="n">
-        <v>110630.7120926565</v>
+        <v>135021.9133200125</v>
       </c>
       <c r="AE5" t="n">
-        <v>151369.8209676641</v>
+        <v>184742.9385507692</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.872496292753577e-06</v>
+        <v>7.165132017000936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>136923.2977034296</v>
+        <v>167111.3317838785</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>107.3949315335511</v>
+        <v>131.7861327609072</v>
       </c>
       <c r="AB6" t="n">
-        <v>146.9424832541351</v>
+        <v>180.3156008372402</v>
       </c>
       <c r="AC6" t="n">
-        <v>132.9184988874709</v>
+        <v>163.1065329679198</v>
       </c>
       <c r="AD6" t="n">
-        <v>107394.9315335511</v>
+        <v>131786.1327609071</v>
       </c>
       <c r="AE6" t="n">
-        <v>146942.4832541351</v>
+        <v>180315.6008372402</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.987038909853711e-06</v>
+        <v>7.37706584754611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.810763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>132918.4988874709</v>
+        <v>163106.5329679198</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.2795756317732</v>
+        <v>129.6707768591292</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.048159986408</v>
+        <v>177.4212775695132</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.3004057702065</v>
+        <v>160.4884398506554</v>
       </c>
       <c r="AD7" t="n">
-        <v>105279.5756317732</v>
+        <v>129670.7768591292</v>
       </c>
       <c r="AE7" t="n">
-        <v>144048.159986408</v>
+        <v>177421.2775695132</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.056888373743294e-06</v>
+        <v>7.506305643339364e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.747106481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>130300.4057702065</v>
+        <v>160488.4398506554</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.4090143325929</v>
+        <v>127.800215559949</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.4887754935306</v>
+        <v>174.8618930766357</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.9852853412098</v>
+        <v>158.1733194216587</v>
       </c>
       <c r="AD8" t="n">
-        <v>103409.014332593</v>
+        <v>127800.215559949</v>
       </c>
       <c r="AE8" t="n">
-        <v>141488.7754935306</v>
+        <v>174861.8930766357</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.120540667152447e-06</v>
+        <v>7.624079051235168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>127985.2853412098</v>
+        <v>158173.3194216587</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.8140705111583</v>
+        <v>126.2052717385143</v>
       </c>
       <c r="AB9" t="n">
-        <v>139.3065029930893</v>
+        <v>172.6796205761945</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.0112858653713</v>
+        <v>156.1993199458202</v>
       </c>
       <c r="AD9" t="n">
-        <v>101814.0705111583</v>
+        <v>126205.2717385143</v>
       </c>
       <c r="AE9" t="n">
-        <v>139306.5029930894</v>
+        <v>172679.6205761945</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.166389225028842e-06</v>
+        <v>7.708910887120514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.648726851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>126011.2858653713</v>
+        <v>156199.3199458202</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.9770630942229</v>
+        <v>125.3682643215789</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.1612725190778</v>
+        <v>171.5343901021829</v>
       </c>
       <c r="AC10" t="n">
-        <v>124.9753545804579</v>
+        <v>155.1633886609068</v>
       </c>
       <c r="AD10" t="n">
-        <v>100977.0630942229</v>
+        <v>125368.2643215789</v>
       </c>
       <c r="AE10" t="n">
-        <v>138161.2725190778</v>
+        <v>171534.3901021829</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.185558438803051e-06</v>
+        <v>7.744378951379564e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.631365740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>124975.3545804579</v>
+        <v>155163.3886609068</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.0551375604272</v>
+        <v>124.4463387877832</v>
       </c>
       <c r="AB11" t="n">
-        <v>136.8998533312551</v>
+        <v>170.2729709143602</v>
       </c>
       <c r="AC11" t="n">
-        <v>123.8343234695077</v>
+        <v>154.0223575499566</v>
       </c>
       <c r="AD11" t="n">
-        <v>100055.1375604272</v>
+        <v>124446.3387877832</v>
       </c>
       <c r="AE11" t="n">
-        <v>136899.8533312551</v>
+        <v>170272.9709143602</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.207458609060161e-06</v>
+        <v>7.784900000135794e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>123834.3234695077</v>
+        <v>154022.3575499566</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>99.18368402035648</v>
+        <v>123.5748852477125</v>
       </c>
       <c r="AB12" t="n">
-        <v>135.7074921519142</v>
+        <v>169.0806097350193</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.7557595676333</v>
+        <v>152.9437936480822</v>
       </c>
       <c r="AD12" t="n">
-        <v>99183.68402035648</v>
+        <v>123574.8852477125</v>
       </c>
       <c r="AE12" t="n">
-        <v>135707.4921519142</v>
+        <v>169080.6097350193</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.227888264288016e-06</v>
+        <v>7.822700211085851e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH12" t="n">
-        <v>122755.7595676333</v>
+        <v>152943.7936480822</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>97.90788517453986</v>
+        <v>122.2990864018959</v>
       </c>
       <c r="AB13" t="n">
-        <v>133.961887886796</v>
+        <v>167.3350054699011</v>
       </c>
       <c r="AC13" t="n">
-        <v>121.1767533236065</v>
+        <v>151.3647874040554</v>
       </c>
       <c r="AD13" t="n">
-        <v>97907.88517453986</v>
+        <v>122299.0864018959</v>
       </c>
       <c r="AE13" t="n">
-        <v>133961.887886796</v>
+        <v>167335.0054699011</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.253832350875576e-06</v>
+        <v>7.870703563809059e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.57349537037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>121176.7533236065</v>
+        <v>151364.7874040554</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>97.1165249869487</v>
+        <v>121.5077262143047</v>
       </c>
       <c r="AB14" t="n">
-        <v>132.8791139657869</v>
+        <v>166.252231548892</v>
       </c>
       <c r="AC14" t="n">
-        <v>120.1973178259353</v>
+        <v>150.3853519063842</v>
       </c>
       <c r="AD14" t="n">
-        <v>97116.5249869487</v>
+        <v>121507.7262143047</v>
       </c>
       <c r="AE14" t="n">
-        <v>132879.1139657869</v>
+        <v>166252.231548892</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.248580511485382e-06</v>
+        <v>7.860986285929868e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>120197.3178259353</v>
+        <v>150385.3519063843</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>96.31168365556317</v>
+        <v>120.7028848829192</v>
       </c>
       <c r="AB15" t="n">
-        <v>131.7778945490922</v>
+        <v>165.1510121321973</v>
       </c>
       <c r="AC15" t="n">
-        <v>119.2011972447985</v>
+        <v>149.3892313252474</v>
       </c>
       <c r="AD15" t="n">
-        <v>96311.68365556317</v>
+        <v>120702.8848829192</v>
       </c>
       <c r="AE15" t="n">
-        <v>131777.8945490922</v>
+        <v>165151.0121321973</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.278988661554606e-06</v>
+        <v>7.917249324850388e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.550347222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>119201.1972447985</v>
+        <v>149389.2313252474</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>95.77372567160096</v>
+        <v>120.164926898957</v>
       </c>
       <c r="AB16" t="n">
-        <v>131.0418367024042</v>
+        <v>164.4149542855093</v>
       </c>
       <c r="AC16" t="n">
-        <v>118.5353877259345</v>
+        <v>148.7234218063834</v>
       </c>
       <c r="AD16" t="n">
-        <v>95773.72567160096</v>
+        <v>120164.926898957</v>
       </c>
       <c r="AE16" t="n">
-        <v>131041.8367024042</v>
+        <v>164414.9542855093</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.276730370616823e-06</v>
+        <v>7.913070895362337e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>118535.3877259345</v>
+        <v>148723.4218063834</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>95.13408079279293</v>
+        <v>119.5252820201489</v>
       </c>
       <c r="AB17" t="n">
-        <v>130.166646360079</v>
+        <v>163.5397639431841</v>
       </c>
       <c r="AC17" t="n">
-        <v>117.7437243215432</v>
+        <v>147.9317584019921</v>
       </c>
       <c r="AD17" t="n">
-        <v>95134.08079279293</v>
+        <v>119525.282020149</v>
       </c>
       <c r="AE17" t="n">
-        <v>130166.646360079</v>
+        <v>163539.7639431841</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.301571570932441e-06</v>
+        <v>7.959033619730914e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.532986111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>117743.7243215432</v>
+        <v>147931.7584019921</v>
       </c>
     </row>
     <row r="18">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>95.33914850607832</v>
+        <v>119.7303497334343</v>
       </c>
       <c r="AB18" t="n">
-        <v>130.447229052345</v>
+        <v>163.8203466354501</v>
       </c>
       <c r="AC18" t="n">
-        <v>117.9975285954596</v>
+        <v>148.1855626759086</v>
       </c>
       <c r="AD18" t="n">
-        <v>95339.14850607832</v>
+        <v>119730.3497334343</v>
       </c>
       <c r="AE18" t="n">
-        <v>130447.229052345</v>
+        <v>163820.3466354501</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.301729126114146e-06</v>
+        <v>7.959325138067287e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.532986111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>117997.5285954596</v>
+        <v>148185.5626759086</v>
       </c>
     </row>
   </sheetData>
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.9769131092453</v>
+        <v>202.0974573068043</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.4651790174708</v>
+        <v>276.5186569976051</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.6607829850019</v>
+        <v>250.1281044702074</v>
       </c>
       <c r="AD2" t="n">
-        <v>166976.9131092453</v>
+        <v>202097.4573068043</v>
       </c>
       <c r="AE2" t="n">
-        <v>228465.1790174708</v>
+        <v>276518.6569976052</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919615349747854e-06</v>
+        <v>5.565237447859404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.384837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>206660.7829850019</v>
+        <v>250128.1044702074</v>
       </c>
     </row>
     <row r="3">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.4471818582932</v>
+        <v>145.8893547777067</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.5376362068542</v>
+        <v>199.6122513908591</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.5480793478677</v>
+        <v>180.5615382757266</v>
       </c>
       <c r="AD3" t="n">
-        <v>122447.1818582932</v>
+        <v>145889.3547777067</v>
       </c>
       <c r="AE3" t="n">
-        <v>167537.6362068542</v>
+        <v>199612.2513908591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.729940494270255e-06</v>
+        <v>7.109842232742319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.215856481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>151548.0793478678</v>
+        <v>180561.5382757266</v>
       </c>
     </row>
     <row r="4">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.538113023699</v>
+        <v>126.0655372891331</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.2971699012483</v>
+        <v>172.4884297379024</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.9074049142256</v>
+        <v>156.0263760927967</v>
       </c>
       <c r="AD4" t="n">
-        <v>102538.113023699</v>
+        <v>126065.5372891331</v>
       </c>
       <c r="AE4" t="n">
-        <v>140297.1699012483</v>
+        <v>172488.4297379025</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.03103482554368e-06</v>
+        <v>7.683774496759826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.900462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>126907.4049142256</v>
+        <v>156026.3760927967</v>
       </c>
     </row>
     <row r="5">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.41151754968287</v>
+        <v>121.938941815117</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.6509799211586</v>
+        <v>166.8422397578128</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.8000793813565</v>
+        <v>150.9190505599275</v>
       </c>
       <c r="AD5" t="n">
-        <v>98411.51754968287</v>
+        <v>121938.941815117</v>
       </c>
       <c r="AE5" t="n">
-        <v>134650.9799211586</v>
+        <v>166842.2397578128</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.192556559011e-06</v>
+        <v>7.991659848785095e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>121800.0793813565</v>
+        <v>150919.0505599275</v>
       </c>
     </row>
     <row r="6">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.60199525043902</v>
+        <v>119.1294195158732</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.8068675639591</v>
+        <v>162.9981274006132</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.3228437122812</v>
+        <v>147.4418148908522</v>
       </c>
       <c r="AD6" t="n">
-        <v>95601.99525043902</v>
+        <v>119129.4195158732</v>
       </c>
       <c r="AE6" t="n">
-        <v>130806.8675639591</v>
+        <v>162998.1274006132</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.299096794237848e-06</v>
+        <v>8.19474197973752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.657407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>118322.8437122812</v>
+        <v>147441.8148908523</v>
       </c>
     </row>
     <row r="7">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.9478012121768</v>
+        <v>117.4752254776109</v>
       </c>
       <c r="AB7" t="n">
-        <v>128.5435263029193</v>
+        <v>160.7347861395735</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.275512564575</v>
+        <v>145.3944837431461</v>
       </c>
       <c r="AD7" t="n">
-        <v>93947.8012121768</v>
+        <v>117475.2254776109</v>
       </c>
       <c r="AE7" t="n">
-        <v>128543.5263029193</v>
+        <v>160734.7861395735</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.359565576393627e-06</v>
+        <v>8.310004810818626e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.605324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>116275.512564575</v>
+        <v>145394.4837431461</v>
       </c>
     </row>
     <row r="8">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.53026042494373</v>
+        <v>116.0576846903779</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.6039844603422</v>
+        <v>158.7952442969963</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.5210778732887</v>
+        <v>143.6400490518598</v>
       </c>
       <c r="AD8" t="n">
-        <v>92530.26042494373</v>
+        <v>116057.6846903779</v>
       </c>
       <c r="AE8" t="n">
-        <v>126603.9844603422</v>
+        <v>158795.2442969963</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.400367063724254e-06</v>
+        <v>8.387778742662209e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.57349537037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>114521.0778732887</v>
+        <v>143640.0490518598</v>
       </c>
     </row>
     <row r="9">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>91.25402883360631</v>
+        <v>114.7814530990405</v>
       </c>
       <c r="AB9" t="n">
-        <v>124.8577880937111</v>
+        <v>157.0490479303652</v>
       </c>
       <c r="AC9" t="n">
-        <v>112.9415360370864</v>
+        <v>142.0605072156574</v>
       </c>
       <c r="AD9" t="n">
-        <v>91254.02883360631</v>
+        <v>114781.4530990405</v>
       </c>
       <c r="AE9" t="n">
-        <v>124857.7880937111</v>
+        <v>157049.0479303652</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.423620108434653e-06</v>
+        <v>8.432102634578394e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>112941.5360370864</v>
+        <v>142060.5072156574</v>
       </c>
     </row>
     <row r="10">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.76496315934909</v>
+        <v>113.2923874247832</v>
       </c>
       <c r="AB10" t="n">
-        <v>122.8203827452522</v>
+        <v>155.0116425819064</v>
       </c>
       <c r="AC10" t="n">
-        <v>111.0985777955674</v>
+        <v>140.2175489741385</v>
       </c>
       <c r="AD10" t="n">
-        <v>89764.96315934909</v>
+        <v>113292.3874247832</v>
       </c>
       <c r="AE10" t="n">
-        <v>122820.3827452522</v>
+        <v>155011.6425819063</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.469637231962006e-06</v>
+        <v>8.51981837395458e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.518518518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>111098.5777955674</v>
+        <v>140217.5489741385</v>
       </c>
     </row>
     <row r="11">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.54245226542125</v>
+        <v>112.0698765308554</v>
       </c>
       <c r="AB11" t="n">
-        <v>121.1476894068067</v>
+        <v>153.3389492434609</v>
       </c>
       <c r="AC11" t="n">
-        <v>109.5855239617028</v>
+        <v>138.7044951402738</v>
       </c>
       <c r="AD11" t="n">
-        <v>88542.45226542125</v>
+        <v>112069.8765308554</v>
       </c>
       <c r="AE11" t="n">
-        <v>121147.6894068067</v>
+        <v>153338.9492434609</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.490880083554916e-06</v>
+        <v>8.560310527550907e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.501157407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>109585.5239617028</v>
+        <v>138704.4951402738</v>
       </c>
     </row>
     <row r="12">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>87.98565007844337</v>
+        <v>111.5130743438775</v>
       </c>
       <c r="AB12" t="n">
-        <v>120.3858480902052</v>
+        <v>152.5771079268593</v>
       </c>
       <c r="AC12" t="n">
-        <v>108.8963917111064</v>
+        <v>138.0153628896774</v>
       </c>
       <c r="AD12" t="n">
-        <v>87985.65007844337</v>
+        <v>111513.0743438775</v>
       </c>
       <c r="AE12" t="n">
-        <v>120385.8480902052</v>
+        <v>152577.1079268593</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.485718776901908e-06</v>
+        <v>8.550472280513438e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.504050925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>108896.3917111064</v>
+        <v>138015.3628896775</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.65723736396787</v>
+        <v>115.4988710003288</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.5142081439135</v>
+        <v>158.0306507531515</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.1535538930255</v>
+        <v>142.9484272427255</v>
       </c>
       <c r="AD2" t="n">
-        <v>94657.23736396787</v>
+        <v>115498.8710003288</v>
       </c>
       <c r="AE2" t="n">
-        <v>129514.2081439135</v>
+        <v>158030.6507531515</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305445642505351e-06</v>
+        <v>9.169472470778418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>117153.5538930255</v>
+        <v>142948.4272427255</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.36972471094076</v>
+        <v>95.29660969332224</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.755938310165</v>
+        <v>130.3890255720522</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.04449437322474</v>
+        <v>117.9448799736369</v>
       </c>
       <c r="AD3" t="n">
-        <v>74369.72471094076</v>
+        <v>95296.60969332224</v>
       </c>
       <c r="AE3" t="n">
-        <v>101755.938310165</v>
+        <v>130389.0255720522</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.880826661570928e-06</v>
+        <v>1.039488346248709e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>92044.49437322473</v>
+        <v>117944.8799736369</v>
       </c>
     </row>
     <row r="4">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.82803089603894</v>
+        <v>91.58432367782821</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.91003658411509</v>
+        <v>125.3097120711554</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.66107870664172</v>
+        <v>113.3503290244028</v>
       </c>
       <c r="AD4" t="n">
-        <v>70828.03089603894</v>
+        <v>91584.32367782822</v>
       </c>
       <c r="AE4" t="n">
-        <v>96910.03658411509</v>
+        <v>125309.7120711554</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.06803312947468e-06</v>
+        <v>1.079358424664011e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.460648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>87661.07870664171</v>
+        <v>113350.3290244028</v>
       </c>
     </row>
     <row r="5">
@@ -8220,28 +8220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.60384197861327</v>
+        <v>91.36013476040254</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.60329141677646</v>
+        <v>125.0029669038168</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.38360886755423</v>
+        <v>113.0728591853153</v>
       </c>
       <c r="AD5" t="n">
-        <v>70603.84197861327</v>
+        <v>91360.13476040255</v>
       </c>
       <c r="AE5" t="n">
-        <v>96603.29141677645</v>
+        <v>125002.9669038168</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.077490451039767e-06</v>
+        <v>1.081372586656494e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>87383.60886755423</v>
+        <v>113072.8591853153</v>
       </c>
     </row>
   </sheetData>
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.0671572920595</v>
+        <v>134.9254980384394</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.7034727778617</v>
+        <v>184.6110189089789</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.9387904636727</v>
+        <v>166.9920023675502</v>
       </c>
       <c r="AD2" t="n">
-        <v>113067.1572920595</v>
+        <v>134925.4980384394</v>
       </c>
       <c r="AE2" t="n">
-        <v>154703.4727778618</v>
+        <v>184611.0189089789</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.753502631458916e-06</v>
+        <v>7.62090804656565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.470486111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>139938.7904636727</v>
+        <v>166992.0023675502</v>
       </c>
     </row>
     <row r="3">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.75509938494771</v>
+        <v>108.6986914773481</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.7021543433001</v>
+        <v>148.7263451270665</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.3733873323264</v>
+        <v>134.5321114869161</v>
       </c>
       <c r="AD3" t="n">
-        <v>86755.09938494771</v>
+        <v>108698.6914773481</v>
       </c>
       <c r="AE3" t="n">
-        <v>118702.1543433001</v>
+        <v>148726.3451270665</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.426614878877946e-06</v>
+        <v>8.987558625042466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.79050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>107373.3873323264</v>
+        <v>134532.1114869161</v>
       </c>
     </row>
     <row r="4">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.12803876523213</v>
+        <v>104.0716308576325</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.3712058719008</v>
+        <v>142.3953966556672</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.6466556974935</v>
+        <v>128.8053798520831</v>
       </c>
       <c r="AD4" t="n">
-        <v>82128.03876523214</v>
+        <v>104071.6308576325</v>
       </c>
       <c r="AE4" t="n">
-        <v>112371.2058719008</v>
+        <v>142395.3966556672</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.657964590661033e-06</v>
+        <v>9.45727852488255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.602430555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>101646.6556974935</v>
+        <v>128805.3798520832</v>
       </c>
     </row>
     <row r="5">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.53726326028651</v>
+        <v>101.4808553526869</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.8263925290874</v>
+        <v>138.8505833128538</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.44015436494024</v>
+        <v>125.5988785195299</v>
       </c>
       <c r="AD5" t="n">
-        <v>79537.26326028651</v>
+        <v>101480.8553526869</v>
       </c>
       <c r="AE5" t="n">
-        <v>108826.3925290874</v>
+        <v>138850.5833128538</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.771638552830713e-06</v>
+        <v>9.688075968774893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>98440.15436494024</v>
+        <v>125598.8785195299</v>
       </c>
     </row>
     <row r="6">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.20649414027633</v>
+        <v>98.97949403208452</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.6373313928146</v>
+        <v>135.4281104017341</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.55545274763689</v>
+        <v>122.5030416195756</v>
       </c>
       <c r="AD6" t="n">
-        <v>77206.49414027634</v>
+        <v>98979.49403208452</v>
       </c>
       <c r="AE6" t="n">
-        <v>105637.3313928146</v>
+        <v>135428.1104017341</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.861185796499072e-06</v>
+        <v>9.869887832739068e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.451967592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>95555.4527476369</v>
+        <v>122503.0416195756</v>
       </c>
     </row>
     <row r="7">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>76.7782011478931</v>
+        <v>98.55120103970127</v>
       </c>
       <c r="AB7" t="n">
-        <v>105.0513220256828</v>
+        <v>134.8421010346024</v>
       </c>
       <c r="AC7" t="n">
-        <v>95.02537129203471</v>
+        <v>121.9729601639734</v>
       </c>
       <c r="AD7" t="n">
-        <v>76778.20114789309</v>
+        <v>98551.20103970126</v>
       </c>
       <c r="AE7" t="n">
-        <v>105051.3220256828</v>
+        <v>134842.1010346024</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.877540927790833e-06</v>
+        <v>9.903094403748068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.440393518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>95025.3712920347</v>
+        <v>121972.9601639734</v>
       </c>
     </row>
   </sheetData>
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.76257018815677</v>
+        <v>91.85554678214348</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.18871447255384</v>
+        <v>125.6808114879982</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.81772137204396</v>
+        <v>113.6860112337436</v>
       </c>
       <c r="AD2" t="n">
-        <v>71762.57018815677</v>
+        <v>91855.54678214347</v>
       </c>
       <c r="AE2" t="n">
-        <v>98188.71447255384</v>
+        <v>125680.8114879982</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.791986153891029e-06</v>
+        <v>1.067081717461484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88817.72137204396</v>
+        <v>113686.0112337436</v>
       </c>
     </row>
     <row r="3">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.39895455222974</v>
+        <v>85.32133894562425</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.48173481657484</v>
+        <v>116.7404200571724</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.94172363410611</v>
+        <v>105.5988782131547</v>
       </c>
       <c r="AD3" t="n">
-        <v>65398.95455222974</v>
+        <v>85321.33894562424</v>
       </c>
       <c r="AE3" t="n">
-        <v>89481.73481657484</v>
+        <v>116740.4200571724</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.22611587128051e-06</v>
+        <v>1.163753925927045e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.486689814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>80941.72363410611</v>
+        <v>105598.8782131547</v>
       </c>
     </row>
     <row r="4">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.47924832966521</v>
+        <v>85.40163272305971</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.59159630517344</v>
+        <v>116.850281545771</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.04110009642447</v>
+        <v>105.6982546754731</v>
       </c>
       <c r="AD4" t="n">
-        <v>65479.24832966521</v>
+        <v>85401.63272305971</v>
       </c>
       <c r="AE4" t="n">
-        <v>89591.59630517344</v>
+        <v>116850.281545771</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.250671431800001e-06</v>
+        <v>1.169221969625605e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.469328703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>81041.10009642447</v>
+        <v>105698.2546754731</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.7207068478525</v>
+        <v>211.3523978306275</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.4288233595821</v>
+        <v>289.1816749214534</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.4826339021862</v>
+        <v>261.5825817360649</v>
       </c>
       <c r="AD2" t="n">
-        <v>175720.7068478525</v>
+        <v>211352.3978306275</v>
       </c>
       <c r="AE2" t="n">
-        <v>240428.8233595821</v>
+        <v>289181.6749214533</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.797227726035713e-06</v>
+        <v>5.288896557252776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.570023148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>217482.6339021862</v>
+        <v>261582.5817360649</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6884776491708</v>
+        <v>150.3576869583336</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.3407642206947</v>
+        <v>205.7260206092929</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.7973649688104</v>
+        <v>186.0918179406839</v>
       </c>
       <c r="AD3" t="n">
-        <v>126688.4776491708</v>
+        <v>150357.6869583336</v>
       </c>
       <c r="AE3" t="n">
-        <v>173340.7642206947</v>
+        <v>205726.0206092929</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.630963435959356e-06</v>
+        <v>6.865293746809861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.291087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>156797.3649688104</v>
+        <v>186091.8179406839</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.171051359017</v>
+        <v>141.6320606326488</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.2679164055557</v>
+        <v>193.7872337230317</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.40375034865</v>
+        <v>175.2924521186511</v>
       </c>
       <c r="AD4" t="n">
-        <v>106171.051359017</v>
+        <v>141632.0606326488</v>
       </c>
       <c r="AE4" t="n">
-        <v>145267.9164055557</v>
+        <v>193787.2337230317</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.929891473511572e-06</v>
+        <v>7.430496019746312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.96412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>131403.75034865</v>
+        <v>175292.4521186511</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.3864638636894</v>
+        <v>125.1409245188727</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.7214327133488</v>
+        <v>171.2233337545963</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.4820538719777</v>
+        <v>154.8820190945634</v>
       </c>
       <c r="AD5" t="n">
-        <v>101386.4638636894</v>
+        <v>125140.9245188727</v>
       </c>
       <c r="AE5" t="n">
-        <v>138721.4327133488</v>
+        <v>171223.3337545963</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.109937467311034e-06</v>
+        <v>7.770920443503426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.79050925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>125482.0538719777</v>
+        <v>154882.0190945634</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.83901089038545</v>
+        <v>122.5934715455688</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.2358951695827</v>
+        <v>167.7377962108302</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.3291711394049</v>
+        <v>151.7291363619906</v>
       </c>
       <c r="AD6" t="n">
-        <v>98839.01089038546</v>
+        <v>122593.4715455688</v>
       </c>
       <c r="AE6" t="n">
-        <v>135235.8951695827</v>
+        <v>167737.7962108302</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.208736629578382e-06</v>
+        <v>7.957726310008898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.700810185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>122329.1711394049</v>
+        <v>151729.1363619906</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.79160255279687</v>
+        <v>120.5460632079802</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.4345407568145</v>
+        <v>164.9364417980619</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.7951740600647</v>
+        <v>149.1951392826505</v>
       </c>
       <c r="AD7" t="n">
-        <v>96791.60255279687</v>
+        <v>120546.0632079802</v>
       </c>
       <c r="AE7" t="n">
-        <v>132434.5407568145</v>
+        <v>164936.4417980619</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.277922963918187e-06</v>
+        <v>8.088541317343793e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.642939814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>119795.1740600647</v>
+        <v>149195.1392826505</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.70354244167733</v>
+        <v>119.4580030968607</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.9458089109571</v>
+        <v>163.4477099522046</v>
       </c>
       <c r="AC8" t="n">
-        <v>118.4485246921273</v>
+        <v>147.848489914713</v>
       </c>
       <c r="AD8" t="n">
-        <v>95703.54244167733</v>
+        <v>119458.0030968607</v>
       </c>
       <c r="AE8" t="n">
-        <v>130945.8089109571</v>
+        <v>163447.7099522046</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.308827987973477e-06</v>
+        <v>8.146975414005451e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.616898148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>118448.5246921272</v>
+        <v>147848.489914713</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>93.96312490486463</v>
+        <v>117.717585560048</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.5644928552884</v>
+        <v>161.0663938965359</v>
       </c>
       <c r="AC9" t="n">
-        <v>116.2944780986127</v>
+        <v>145.6944433211985</v>
       </c>
       <c r="AD9" t="n">
-        <v>93963.12490486463</v>
+        <v>117717.585560048</v>
       </c>
       <c r="AE9" t="n">
-        <v>128564.4928552885</v>
+        <v>161066.3938965359</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.360246625556757e-06</v>
+        <v>8.244195905837999e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.57349537037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>116294.4780986127</v>
+        <v>145694.4433211985</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>92.69045401721925</v>
+        <v>116.4449146724026</v>
       </c>
       <c r="AB10" t="n">
-        <v>126.823168400536</v>
+        <v>159.3250694417834</v>
       </c>
       <c r="AC10" t="n">
-        <v>114.7193432058571</v>
+        <v>144.1193084284428</v>
       </c>
       <c r="AD10" t="n">
-        <v>92690.45401721925</v>
+        <v>116444.9146724026</v>
       </c>
       <c r="AE10" t="n">
-        <v>126823.168400536</v>
+        <v>159325.0694417834</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.382698533276367e-06</v>
+        <v>8.28664715724551e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>114719.3432058571</v>
+        <v>144119.3084284428</v>
       </c>
     </row>
     <row r="11">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>91.77650737344229</v>
+        <v>115.5309680286257</v>
       </c>
       <c r="AB11" t="n">
-        <v>125.5726662820407</v>
+        <v>158.0745673232882</v>
       </c>
       <c r="AC11" t="n">
-        <v>113.5881872544599</v>
+        <v>142.9881524770456</v>
       </c>
       <c r="AD11" t="n">
-        <v>91776.50737344229</v>
+        <v>115530.9680286256</v>
       </c>
       <c r="AE11" t="n">
-        <v>125572.6662820407</v>
+        <v>158074.5673232882</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.39868946035724e-06</v>
+        <v>8.316882221197624e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>113588.1872544599</v>
+        <v>142988.1524770456</v>
       </c>
     </row>
     <row r="12">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>90.5009906466187</v>
+        <v>114.2554513018021</v>
       </c>
       <c r="AB12" t="n">
-        <v>123.827448024575</v>
+        <v>156.3293490658225</v>
       </c>
       <c r="AC12" t="n">
-        <v>112.0095301780569</v>
+        <v>141.4094954006427</v>
       </c>
       <c r="AD12" t="n">
-        <v>90500.99064661871</v>
+        <v>114255.4513018021</v>
       </c>
       <c r="AE12" t="n">
-        <v>123827.448024575</v>
+        <v>156329.3490658225</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.423510394311052e-06</v>
+        <v>8.363812741338779e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.521412037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>112009.5301780569</v>
+        <v>141409.4954006427</v>
       </c>
     </row>
     <row r="13">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>89.83453866570299</v>
+        <v>113.5889993208863</v>
       </c>
       <c r="AB13" t="n">
-        <v>122.9155790225003</v>
+        <v>155.4174800637477</v>
       </c>
       <c r="AC13" t="n">
-        <v>111.1846886737237</v>
+        <v>140.5846538963095</v>
       </c>
       <c r="AD13" t="n">
-        <v>89834.53866570299</v>
+        <v>113588.9993208863</v>
       </c>
       <c r="AE13" t="n">
-        <v>122915.5790225003</v>
+        <v>155417.4800637478</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.443593275796459e-06</v>
+        <v>8.401784724012644e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.506944444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>111184.6886737237</v>
+        <v>140584.6538963095</v>
       </c>
     </row>
     <row r="14">
@@ -11125,28 +11125,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>90.01374117745345</v>
+        <v>113.7682018326368</v>
       </c>
       <c r="AB14" t="n">
-        <v>123.160771804934</v>
+        <v>155.6626728461815</v>
       </c>
       <c r="AC14" t="n">
-        <v>111.4064806011323</v>
+        <v>140.8064458237181</v>
       </c>
       <c r="AD14" t="n">
-        <v>90013.74117745346</v>
+        <v>113768.2018326368</v>
       </c>
       <c r="AE14" t="n">
-        <v>123160.771804934</v>
+        <v>155662.6728461815</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.44418553235501e-06</v>
+        <v>8.402904541196057e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.506944444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>111406.4806011323</v>
+        <v>140806.4458237181</v>
       </c>
     </row>
   </sheetData>
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.10825813148593</v>
+        <v>84.7074361010832</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.08399114909238</v>
+        <v>115.9004511017897</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.58194006401132</v>
+        <v>104.8390747159696</v>
       </c>
       <c r="AD2" t="n">
-        <v>65108.25813148593</v>
+        <v>84707.43610108321</v>
       </c>
       <c r="AE2" t="n">
-        <v>89083.99114909238</v>
+        <v>115900.4511017897</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.094244054735882e-06</v>
+        <v>1.167889452702318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.660300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>80581.94006401132</v>
+        <v>104839.0747159696</v>
       </c>
     </row>
     <row r="3">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.39356953968128</v>
+        <v>81.99274750927856</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.36963445417895</v>
+        <v>112.1860944068762</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.22207635892688</v>
+        <v>101.4792110108852</v>
       </c>
       <c r="AD3" t="n">
-        <v>62393.56953968128</v>
+        <v>81992.74750927856</v>
       </c>
       <c r="AE3" t="n">
-        <v>85369.63445417894</v>
+        <v>112186.0944068762</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.316158759068168e-06</v>
+        <v>1.218764879910853e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.506944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>77222.07635892689</v>
+        <v>101479.2110108852</v>
       </c>
     </row>
   </sheetData>
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1836881231666</v>
+        <v>167.2842192685655</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.2277977396738</v>
+        <v>228.8856488620435</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.8362324817709</v>
+        <v>207.0411237777418</v>
       </c>
       <c r="AD2" t="n">
-        <v>133183.6881231666</v>
+        <v>167284.2192685655</v>
       </c>
       <c r="AE2" t="n">
-        <v>182227.7977396738</v>
+        <v>228885.6488620435</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.29509882995235e-06</v>
+        <v>6.458348168657655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.916087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>164836.2324817709</v>
+        <v>207041.1237777418</v>
       </c>
     </row>
     <row r="3">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.47789014636908</v>
+        <v>132.4930804371963</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.7417938360969</v>
+        <v>181.2828778362689</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.8822261437113</v>
+        <v>163.9814944077433</v>
       </c>
       <c r="AD3" t="n">
-        <v>98477.89014636907</v>
+        <v>132493.0804371963</v>
       </c>
       <c r="AE3" t="n">
-        <v>134741.7938360969</v>
+        <v>181282.8778362689</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.05861508790346e-06</v>
+        <v>7.954829482497399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.990162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>121882.2261437112</v>
+        <v>163981.4944077433</v>
       </c>
     </row>
     <row r="4">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.20667996587883</v>
+        <v>114.9972612991925</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.1612474008875</v>
+        <v>157.344326230599</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.1205950174029</v>
+        <v>142.3276045693426</v>
       </c>
       <c r="AD4" t="n">
-        <v>92206.67996587884</v>
+        <v>114997.2612991925</v>
       </c>
       <c r="AE4" t="n">
-        <v>126161.2474008875</v>
+        <v>157344.326230599</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.335137838217131e-06</v>
+        <v>8.496810251585987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.735532407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>114120.5950174029</v>
+        <v>142327.6045693426</v>
       </c>
     </row>
     <row r="5">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.36807426502389</v>
+        <v>112.1586555983376</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.2773418505345</v>
+        <v>153.460420680246</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.6073639616787</v>
+        <v>138.8143735136184</v>
       </c>
       <c r="AD5" t="n">
-        <v>89368.0742650239</v>
+        <v>112158.6555983376</v>
       </c>
       <c r="AE5" t="n">
-        <v>122277.3418505345</v>
+        <v>153460.420680246</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.458677455614353e-06</v>
+        <v>8.73894619437516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.631365740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>110607.3639616787</v>
+        <v>138814.3735136184</v>
       </c>
     </row>
     <row r="6">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.91960639880327</v>
+        <v>109.710187732117</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.9272400971944</v>
+        <v>150.1103189269059</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.576991217779</v>
+        <v>135.7840007697187</v>
       </c>
       <c r="AD6" t="n">
-        <v>86919.60639880327</v>
+        <v>109710.187732117</v>
       </c>
       <c r="AE6" t="n">
-        <v>118927.2400971944</v>
+        <v>150110.3189269059</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.551654032187431e-06</v>
+        <v>8.921178999528224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.559027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>107576.991217779</v>
+        <v>135784.0007697187</v>
       </c>
     </row>
     <row r="7">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.17332338301112</v>
+        <v>107.9639047163248</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.5378986344194</v>
+        <v>147.7209774641309</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.4156851507486</v>
+        <v>133.6226947026884</v>
       </c>
       <c r="AD7" t="n">
-        <v>85173.32338301113</v>
+        <v>107963.9047163248</v>
       </c>
       <c r="AE7" t="n">
-        <v>116537.8986344194</v>
+        <v>147720.9774641309</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.611548636000312e-06</v>
+        <v>9.03857159526199e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.512731481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>105415.6851507486</v>
+        <v>133622.6947026884</v>
       </c>
     </row>
     <row r="8">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.61731611318712</v>
+        <v>106.2373052459086</v>
       </c>
       <c r="AB8" t="n">
-        <v>114.4089008416513</v>
+        <v>145.358567896516</v>
       </c>
       <c r="AC8" t="n">
-        <v>103.4898759192545</v>
+        <v>131.4857501885432</v>
       </c>
       <c r="AD8" t="n">
-        <v>83617.31611318712</v>
+        <v>106237.3052459086</v>
       </c>
       <c r="AE8" t="n">
-        <v>114408.9008416513</v>
+        <v>145358.567896516</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.652299357099169e-06</v>
+        <v>9.118442445443464e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.480902777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>103489.8759192545</v>
+        <v>131485.7501885432</v>
       </c>
     </row>
     <row r="9">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.41379333441822</v>
+        <v>105.0337824671397</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.7621878800628</v>
+        <v>143.7118549349275</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.0003229315433</v>
+        <v>129.9961972008321</v>
       </c>
       <c r="AD9" t="n">
-        <v>82413.79333441821</v>
+        <v>105033.7824671397</v>
       </c>
       <c r="AE9" t="n">
-        <v>112762.1878800628</v>
+        <v>143711.8549349275</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.677656605255464e-06</v>
+        <v>9.1681423013943e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>102000.3229315433</v>
+        <v>129996.197200832</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.6009139406975</v>
+        <v>182.8927579812574</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.3730115489515</v>
+        <v>250.2419401288668</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.5317978152288</v>
+        <v>226.3592005798094</v>
       </c>
       <c r="AD2" t="n">
-        <v>159600.9139406975</v>
+        <v>182892.7579812574</v>
       </c>
       <c r="AE2" t="n">
-        <v>218373.0115489515</v>
+        <v>250241.9401288668</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.032138323177388e-06</v>
+        <v>5.829901696712544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>197531.7978152288</v>
+        <v>226359.2005798094</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.216350037228</v>
+        <v>141.4228532232163</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.748825458149</v>
+        <v>193.5009869158667</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.3117445723702</v>
+        <v>175.0335243050119</v>
       </c>
       <c r="AD3" t="n">
-        <v>118216.350037228</v>
+        <v>141422.8532232163</v>
       </c>
       <c r="AE3" t="n">
-        <v>161748.825458149</v>
+        <v>193500.9869158667</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.834309890777867e-06</v>
+        <v>7.372239441419384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.137731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>146311.7445723702</v>
+        <v>175033.5243050119</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.06442026825829</v>
+        <v>122.3561748002671</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.5443102247481</v>
+        <v>167.413116335115</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.6081514945686</v>
+        <v>151.4354434779226</v>
       </c>
       <c r="AD4" t="n">
-        <v>99064.42026825828</v>
+        <v>122356.1748002671</v>
       </c>
       <c r="AE4" t="n">
-        <v>135544.3102247481</v>
+        <v>167413.116335115</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.126143263620896e-06</v>
+        <v>7.933348366592712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>122608.1514945686</v>
+        <v>151435.4434779226</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.36032820746642</v>
+        <v>118.6520827394753</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.4762080541666</v>
+        <v>162.3450141645336</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.0237418820197</v>
+        <v>146.8510338653737</v>
       </c>
       <c r="AD5" t="n">
-        <v>95360.32820746642</v>
+        <v>118652.0827394753</v>
       </c>
       <c r="AE5" t="n">
-        <v>130476.2080541666</v>
+        <v>162345.0141645336</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.278339769848937e-06</v>
+        <v>8.225977058071003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>118023.7418820197</v>
+        <v>146851.0338653737</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.1713882836974</v>
+        <v>116.4631428157062</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.4812038812534</v>
+        <v>159.3500099916203</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.3145767038536</v>
+        <v>144.1418686872076</v>
       </c>
       <c r="AD6" t="n">
-        <v>93171.38828369739</v>
+        <v>116463.1428157062</v>
       </c>
       <c r="AE6" t="n">
-        <v>127481.2038812534</v>
+        <v>159350.0099916203</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.361650217762593e-06</v>
+        <v>8.386158312973895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.637152777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>115314.5767038536</v>
+        <v>144141.8686872076</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.27375719310064</v>
+        <v>114.5655117251095</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.884781305525</v>
+        <v>156.7535874158919</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.96595305465</v>
+        <v>141.7932450380039</v>
       </c>
       <c r="AD7" t="n">
-        <v>91273.75719310064</v>
+        <v>114565.5117251095</v>
       </c>
       <c r="AE7" t="n">
-        <v>124884.781305525</v>
+        <v>156753.5874158919</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.419841386450143e-06</v>
+        <v>8.498042652310278e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.590856481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>112965.95305465</v>
+        <v>141793.2450380039</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.76485621246265</v>
+        <v>113.0566107444715</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.820236415804</v>
+        <v>154.689042526171</v>
       </c>
       <c r="AC8" t="n">
-        <v>111.0984454315963</v>
+        <v>139.9257374149503</v>
       </c>
       <c r="AD8" t="n">
-        <v>89764.85621246265</v>
+        <v>113056.6107444715</v>
       </c>
       <c r="AE8" t="n">
-        <v>122820.236415804</v>
+        <v>154689.042526171</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.4661310625786e-06</v>
+        <v>8.587043955231965e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>111098.4454315963</v>
+        <v>139925.7374149503</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.26663844221848</v>
+        <v>111.5583929742273</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.7703087658538</v>
+        <v>152.6391148762208</v>
       </c>
       <c r="AC9" t="n">
-        <v>109.2441599994652</v>
+        <v>138.0714519828192</v>
       </c>
       <c r="AD9" t="n">
-        <v>88266.63844221848</v>
+        <v>111558.3929742273</v>
       </c>
       <c r="AE9" t="n">
-        <v>120770.3087658538</v>
+        <v>152639.1148762208</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.512311047531395e-06</v>
+        <v>8.675834354592224e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>109244.1599994652</v>
+        <v>138071.4519828192</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.97147396722433</v>
+        <v>110.2632284992332</v>
       </c>
       <c r="AB10" t="n">
-        <v>118.9982075925437</v>
+        <v>150.8670137029107</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.6411856749757</v>
+        <v>136.4684776583296</v>
       </c>
       <c r="AD10" t="n">
-        <v>86971.47396722433</v>
+        <v>110263.2284992332</v>
       </c>
       <c r="AE10" t="n">
-        <v>118998.2075925437</v>
+        <v>150867.0137029107</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.528929260643863e-06</v>
+        <v>8.707786244148231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.504050925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>107641.1856749757</v>
+        <v>136468.4776583296</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.35471235454277</v>
+        <v>109.4758746859594</v>
       </c>
       <c r="AB11" t="n">
-        <v>118.1543271444713</v>
+        <v>149.7897214799913</v>
       </c>
       <c r="AC11" t="n">
-        <v>106.8778439924733</v>
+        <v>135.4940006931762</v>
       </c>
       <c r="AD11" t="n">
-        <v>86354.71235454277</v>
+        <v>109475.8746859594</v>
       </c>
       <c r="AE11" t="n">
-        <v>118154.3271444713</v>
+        <v>149789.7214799913</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.555364833977886e-06</v>
+        <v>8.758614002451848e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>106877.8439924733</v>
+        <v>135494.0006931762</v>
       </c>
     </row>
     <row r="12">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>86.50445897616262</v>
+        <v>109.6256213075793</v>
       </c>
       <c r="AB12" t="n">
-        <v>118.3592170785261</v>
+        <v>149.9946114140462</v>
       </c>
       <c r="AC12" t="n">
-        <v>107.0631795187869</v>
+        <v>135.6793362194898</v>
       </c>
       <c r="AD12" t="n">
-        <v>86504.45897616263</v>
+        <v>109625.6213075793</v>
       </c>
       <c r="AE12" t="n">
-        <v>118359.2170785261</v>
+        <v>149994.6114140462</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.555913289856187e-06</v>
+        <v>8.759668520258979e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>107063.1795187869</v>
+        <v>135679.3362194898</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.4598092454334</v>
+        <v>229.7383755635416</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.7002458539052</v>
+        <v>314.3381807877044</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.4376258988142</v>
+        <v>284.3381859898266</v>
       </c>
       <c r="AD2" t="n">
-        <v>193459.8092454334</v>
+        <v>229738.3755635415</v>
       </c>
       <c r="AE2" t="n">
-        <v>264700.2458539052</v>
+        <v>314338.1807877044</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.584126653131107e-06</v>
+        <v>4.81403195801684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.928819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>239437.6258988142</v>
+        <v>284338.1859898266</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.5482919351987</v>
+        <v>159.6487514679169</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.4631529942522</v>
+        <v>218.4384649641358</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.762809971703</v>
+        <v>197.5910044483324</v>
       </c>
       <c r="AD3" t="n">
-        <v>135548.2919351987</v>
+        <v>159648.7514679169</v>
       </c>
       <c r="AE3" t="n">
-        <v>185463.1529942522</v>
+        <v>218438.4649641358</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442149449745787e-06</v>
+        <v>6.412463350148952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.450231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>167762.809971703</v>
+        <v>197591.0044483324</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.5147338193207</v>
+        <v>148.6151933520389</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.3665520138856</v>
+        <v>203.3418639837691</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.1070074006852</v>
+        <v>183.9352018773146</v>
       </c>
       <c r="AD4" t="n">
-        <v>124514.7338193207</v>
+        <v>148615.1933520389</v>
       </c>
       <c r="AE4" t="n">
-        <v>170366.5520138856</v>
+        <v>203341.8639837691</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.780424725558213e-06</v>
+        <v>7.042644532017425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.050925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>154107.0074006852</v>
+        <v>183935.2018773146</v>
       </c>
     </row>
     <row r="5">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.5133178261695</v>
+        <v>131.6990287049083</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.1044646025302</v>
+        <v>180.1964212250629</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.0650209633174</v>
+        <v>162.998727690659</v>
       </c>
       <c r="AD5" t="n">
-        <v>107513.3178261695</v>
+        <v>131699.0287049083</v>
       </c>
       <c r="AE5" t="n">
-        <v>147104.4646025302</v>
+        <v>180196.4212250629</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.949297672325292e-06</v>
+        <v>7.357242023435331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.877314814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>133065.0209633174</v>
+        <v>162998.727690659</v>
       </c>
     </row>
     <row r="6">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.8011053088969</v>
+        <v>128.9868161876356</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.393495782028</v>
+        <v>176.4854524045608</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.7082217986654</v>
+        <v>159.641928526007</v>
       </c>
       <c r="AD6" t="n">
-        <v>104801.1053088968</v>
+        <v>128986.8161876356</v>
       </c>
       <c r="AE6" t="n">
-        <v>143393.495782028</v>
+        <v>176485.4524045608</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.045274679375047e-06</v>
+        <v>7.53603990805623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.787615740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>129708.2217986654</v>
+        <v>159641.928526007</v>
       </c>
     </row>
     <row r="7">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.3435656316064</v>
+        <v>126.5292765103451</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.0309815765622</v>
+        <v>173.1229381990949</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.6666212296497</v>
+        <v>156.6003279569913</v>
       </c>
       <c r="AD7" t="n">
-        <v>102343.5656316064</v>
+        <v>126529.2765103451</v>
       </c>
       <c r="AE7" t="n">
-        <v>140030.9815765622</v>
+        <v>173122.9381990949</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.133628581617761e-06</v>
+        <v>7.700636526606852e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>126666.6212296497</v>
+        <v>156600.3279569913</v>
       </c>
     </row>
     <row r="8">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.919042010241</v>
+        <v>125.1047528889797</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.0818855122643</v>
+        <v>171.1738421347971</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.9035441581543</v>
+        <v>154.8372508854959</v>
       </c>
       <c r="AD8" t="n">
-        <v>100919.042010241</v>
+        <v>125104.7528889797</v>
       </c>
       <c r="AE8" t="n">
-        <v>138081.8855122643</v>
+        <v>171173.8421347971</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.174920399322563e-06</v>
+        <v>7.777560051154177e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.668981481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>124903.5441581543</v>
+        <v>154837.2508854959</v>
       </c>
     </row>
     <row r="9">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.46929138387672</v>
+        <v>123.6550022626155</v>
       </c>
       <c r="AB9" t="n">
-        <v>136.09827274679</v>
+        <v>169.1902293693228</v>
       </c>
       <c r="AC9" t="n">
-        <v>123.1092446109983</v>
+        <v>153.0429513383399</v>
       </c>
       <c r="AD9" t="n">
-        <v>99469.29138387673</v>
+        <v>123655.0022626155</v>
       </c>
       <c r="AE9" t="n">
-        <v>136098.27274679</v>
+        <v>169190.2293693228</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.221717792721341e-06</v>
+        <v>7.864740045641148e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>123109.2446109983</v>
+        <v>153042.9513383399</v>
       </c>
     </row>
     <row r="10">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.47336221061906</v>
+        <v>122.6590730893578</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.7355985146453</v>
+        <v>167.8275551371781</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.8766220950438</v>
+        <v>151.8103288223854</v>
       </c>
       <c r="AD10" t="n">
-        <v>98473.36221061906</v>
+        <v>122659.0730893578</v>
       </c>
       <c r="AE10" t="n">
-        <v>134735.5985146454</v>
+        <v>167827.5551371781</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.242416639801569e-06</v>
+        <v>7.903300427818076e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>121876.6220950438</v>
+        <v>151810.3288223854</v>
       </c>
     </row>
     <row r="11">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>96.77507720180452</v>
+        <v>120.9607880805433</v>
       </c>
       <c r="AB11" t="n">
-        <v>132.4119300425397</v>
+        <v>165.5038866650725</v>
       </c>
       <c r="AC11" t="n">
-        <v>119.774721280626</v>
+        <v>149.7084280079676</v>
       </c>
       <c r="AD11" t="n">
-        <v>96775.07720180452</v>
+        <v>120960.7880805433</v>
       </c>
       <c r="AE11" t="n">
-        <v>132411.9300425397</v>
+        <v>165503.8866650725</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.286778874720319e-06</v>
+        <v>7.985943906754816e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.57349537037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>119774.721280626</v>
+        <v>149708.4280079676</v>
       </c>
     </row>
     <row r="12">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>96.36594436056181</v>
+        <v>120.5516552393006</v>
       </c>
       <c r="AB12" t="n">
-        <v>131.8521364394846</v>
+        <v>164.9440930620174</v>
       </c>
       <c r="AC12" t="n">
-        <v>119.268353593371</v>
+        <v>149.2020603207126</v>
       </c>
       <c r="AD12" t="n">
-        <v>96365.94436056181</v>
+        <v>120551.6552393006</v>
       </c>
       <c r="AE12" t="n">
-        <v>131852.1364394846</v>
+        <v>164944.0930620174</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.284555469151599e-06</v>
+        <v>7.981801870817654e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>119268.353593371</v>
+        <v>149202.0603207126</v>
       </c>
     </row>
     <row r="13">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>95.17600687382867</v>
+        <v>119.3617177525674</v>
       </c>
       <c r="AB13" t="n">
-        <v>130.2240114738002</v>
+        <v>163.315968096333</v>
       </c>
       <c r="AC13" t="n">
-        <v>117.7956145893233</v>
+        <v>147.7293213166649</v>
       </c>
       <c r="AD13" t="n">
-        <v>95176.00687382866</v>
+        <v>119361.7177525674</v>
       </c>
       <c r="AE13" t="n">
-        <v>130224.0114738002</v>
+        <v>163315.968096333</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.310230509647533e-06</v>
+        <v>8.029632523901566e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>117795.6145893233</v>
+        <v>147729.3213166649</v>
       </c>
     </row>
     <row r="14">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>94.3325206507032</v>
+        <v>118.5182315294419</v>
       </c>
       <c r="AB14" t="n">
-        <v>129.0699164113347</v>
+        <v>162.1618730338675</v>
       </c>
       <c r="AC14" t="n">
-        <v>116.7516647398365</v>
+        <v>146.6853714671781</v>
       </c>
       <c r="AD14" t="n">
-        <v>94332.5206507032</v>
+        <v>118518.231529442</v>
       </c>
       <c r="AE14" t="n">
-        <v>129069.9164113347</v>
+        <v>162161.8730338675</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.330135283310363e-06</v>
+        <v>8.066713607529508e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.538773148148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>116751.6647398365</v>
+        <v>146685.3714671781</v>
       </c>
     </row>
     <row r="15">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>94.01936313662377</v>
+        <v>118.2050740153625</v>
       </c>
       <c r="AB15" t="n">
-        <v>128.641440485037</v>
+        <v>161.7333971075697</v>
       </c>
       <c r="AC15" t="n">
-        <v>116.3640819545748</v>
+        <v>146.2977886819164</v>
       </c>
       <c r="AD15" t="n">
-        <v>94019.36313662377</v>
+        <v>118205.0740153625</v>
       </c>
       <c r="AE15" t="n">
-        <v>128641.4404850369</v>
+        <v>161733.3971075697</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.330399974449495e-06</v>
+        <v>8.067206707045836e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.53587962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>116364.0819545748</v>
+        <v>146297.7886819164</v>
       </c>
     </row>
     <row r="16">
@@ -15705,28 +15705,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>93.92634910690158</v>
+        <v>118.1120599856403</v>
       </c>
       <c r="AB16" t="n">
-        <v>128.5141745860818</v>
+        <v>161.6061312086146</v>
       </c>
       <c r="AC16" t="n">
-        <v>116.248962134397</v>
+        <v>146.1826688617386</v>
       </c>
       <c r="AD16" t="n">
-        <v>93926.34910690159</v>
+        <v>118112.0599856403</v>
       </c>
       <c r="AE16" t="n">
-        <v>128514.1745860818</v>
+        <v>161606.1312086146</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.330929356727763e-06</v>
+        <v>8.068192906078496e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.53587962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>116248.962134397</v>
+        <v>146182.6688617386</v>
       </c>
     </row>
   </sheetData>
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.2406315346814</v>
+        <v>141.5669393674709</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.1502925910745</v>
+        <v>193.6981319350678</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.5794576491012</v>
+        <v>175.2118540802753</v>
       </c>
       <c r="AD2" t="n">
-        <v>119240.6315346814</v>
+        <v>141566.9393674709</v>
       </c>
       <c r="AE2" t="n">
-        <v>163150.2925910745</v>
+        <v>193698.1319350678</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.600574566720582e-06</v>
+        <v>7.217342195343352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>147579.4576491012</v>
+        <v>175211.8540802753</v>
       </c>
     </row>
     <row r="3">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.73657334597202</v>
+        <v>112.9775403241898</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.1497826670053</v>
+        <v>154.5808548888009</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.3011016546133</v>
+        <v>139.8278750538485</v>
       </c>
       <c r="AD3" t="n">
-        <v>90736.57334597202</v>
+        <v>112977.5403241898</v>
       </c>
       <c r="AE3" t="n">
-        <v>124149.7826670053</v>
+        <v>154580.8548888009</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.297391610944115e-06</v>
+        <v>8.614110117383506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.857060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>112301.1016546133</v>
+        <v>139827.8750538485</v>
       </c>
     </row>
     <row r="4">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.53237658531312</v>
+        <v>107.7733435635309</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.0291710661181</v>
+        <v>147.4602432879137</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.8600712310713</v>
+        <v>133.3868446303066</v>
       </c>
       <c r="AD4" t="n">
-        <v>85532.37658531312</v>
+        <v>107773.3435635309</v>
       </c>
       <c r="AE4" t="n">
-        <v>117029.1710661181</v>
+        <v>147460.2432879137</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.549613379889659e-06</v>
+        <v>9.119687986099282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.642939814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>105860.0712310713</v>
+        <v>133386.8446303066</v>
       </c>
     </row>
     <row r="5">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.81780926596593</v>
+        <v>105.0587762441837</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.3149803015311</v>
+        <v>143.7460525233267</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.5003576201559</v>
+        <v>130.0271310193911</v>
       </c>
       <c r="AD5" t="n">
-        <v>82817.80926596593</v>
+        <v>105058.7762441837</v>
       </c>
       <c r="AE5" t="n">
-        <v>113314.9803015311</v>
+        <v>143746.0525233267</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.666847249333695e-06</v>
+        <v>9.354682967312089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.550347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>102500.3576201559</v>
+        <v>130027.1310193911</v>
       </c>
     </row>
     <row r="6">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.7641830042477</v>
+        <v>102.8345577818733</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.5051182506532</v>
+        <v>140.7027786976019</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.95866485974668</v>
+        <v>127.2743029763309</v>
       </c>
       <c r="AD6" t="n">
-        <v>80764.18300424769</v>
+        <v>102834.5577818733</v>
       </c>
       <c r="AE6" t="n">
-        <v>110505.1182506532</v>
+        <v>140702.7786976019</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.746740384592331e-06</v>
+        <v>9.514828545617836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.492476851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>99958.66485974667</v>
+        <v>127274.3029763309</v>
       </c>
     </row>
     <row r="7">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.11796058495051</v>
+        <v>101.1883353625761</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.2526841103644</v>
+        <v>138.4503445573132</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.92119987249519</v>
+        <v>125.2368379890794</v>
       </c>
       <c r="AD7" t="n">
-        <v>79117.9605849505</v>
+        <v>101188.3353625761</v>
       </c>
       <c r="AE7" t="n">
-        <v>108252.6841103644</v>
+        <v>138450.3445573132</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.791354543994824e-06</v>
+        <v>9.604257510134089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.45775462962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>97921.1998724952</v>
+        <v>125236.8379890794</v>
       </c>
     </row>
     <row r="8">
@@ -16638,28 +16638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.77583821885094</v>
+        <v>100.8462129964765</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.7845771956937</v>
+        <v>137.9822376426425</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.49776842476832</v>
+        <v>124.8134065413525</v>
       </c>
       <c r="AD8" t="n">
-        <v>78775.83821885094</v>
+        <v>100846.2129964765</v>
       </c>
       <c r="AE8" t="n">
-        <v>107784.5771956937</v>
+        <v>137982.2376426425</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.811456687705061e-06</v>
+        <v>9.644552204030374e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.443287037037038</v>
       </c>
       <c r="AH8" t="n">
-        <v>97497.76842476832</v>
+        <v>124813.4065413525</v>
       </c>
     </row>
   </sheetData>
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.7772546662825</v>
+        <v>121.9825013340057</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.8878858130442</v>
+        <v>166.9018398132667</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.7280595179475</v>
+        <v>150.9729624697381</v>
       </c>
       <c r="AD2" t="n">
-        <v>100777.2546662825</v>
+        <v>121982.5013340057</v>
       </c>
       <c r="AE2" t="n">
-        <v>137887.8858130442</v>
+        <v>166901.8398132666</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.105507411794843e-06</v>
+        <v>8.588978255356312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.204282407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>124728.0595179475</v>
+        <v>150972.9624697381</v>
       </c>
     </row>
     <row r="3">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.71702589988801</v>
+        <v>100.0075239136318</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.7041075862723</v>
+        <v>136.8347062391439</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.42497872193024</v>
+        <v>123.7753939244331</v>
       </c>
       <c r="AD3" t="n">
-        <v>78717.02589988802</v>
+        <v>100007.5239136318</v>
       </c>
       <c r="AE3" t="n">
-        <v>107704.1075862723</v>
+        <v>136834.7062391439</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712462458550063e-06</v>
+        <v>9.858766170872531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.663194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>97424.97872193024</v>
+        <v>123775.3939244331</v>
       </c>
     </row>
     <row r="4">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.92502714922753</v>
+        <v>96.21552516297133</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.5157276044431</v>
+        <v>131.6463262573148</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.73177044362819</v>
+        <v>119.082185646131</v>
       </c>
       <c r="AD4" t="n">
-        <v>74925.02714922754</v>
+        <v>96215.52516297133</v>
       </c>
       <c r="AE4" t="n">
-        <v>102515.7276044431</v>
+        <v>131646.3262573148</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.912672910379287e-06</v>
+        <v>1.027761895684387e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.512731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>92731.77044362819</v>
+        <v>119082.185646131</v>
       </c>
     </row>
     <row r="5">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.51036545971048</v>
+        <v>93.6302712728621</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.21188095349216</v>
+        <v>128.1090678315169</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.74323828006504</v>
+        <v>115.8825181999168</v>
       </c>
       <c r="AD5" t="n">
-        <v>72510.36545971049</v>
+        <v>93630.2712728621</v>
       </c>
       <c r="AE5" t="n">
-        <v>99211.88095349216</v>
+        <v>128109.0678315169</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.012300876575592e-06</v>
+        <v>1.048604689265202e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.443287037037038</v>
       </c>
       <c r="AH5" t="n">
-        <v>89743.23828006504</v>
+        <v>115882.5181999168</v>
       </c>
     </row>
     <row r="6">
@@ -17359,28 +17359,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.75005167518792</v>
+        <v>93.86995748833951</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.53983020771773</v>
+        <v>128.4370170857425</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.03988851774707</v>
+        <v>116.1791684375989</v>
       </c>
       <c r="AD6" t="n">
-        <v>72750.05167518792</v>
+        <v>93869.95748833951</v>
       </c>
       <c r="AE6" t="n">
-        <v>99539.83020771772</v>
+        <v>128437.0170857425</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.009258345871393e-06</v>
+        <v>1.04796817281453e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.446180555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>90039.88851774708</v>
+        <v>116179.1684375989</v>
       </c>
     </row>
   </sheetData>
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.91963756769485</v>
+        <v>98.45040797348257</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.6130856918757</v>
+        <v>134.7041915147257</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.43808242587568</v>
+        <v>121.8482125351165</v>
       </c>
       <c r="AD2" t="n">
-        <v>77919.63756769485</v>
+        <v>98450.40797348256</v>
       </c>
       <c r="AE2" t="n">
-        <v>106613.0856918757</v>
+        <v>134704.1915147257</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.539539258029863e-06</v>
+        <v>9.868303608559782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96438.08242587568</v>
+        <v>121848.2125351165</v>
       </c>
     </row>
     <row r="3">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.81205911115009</v>
+        <v>90.34282951693783</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.51993916651909</v>
+        <v>123.6110449893691</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.40365023556663</v>
+        <v>111.8137803448075</v>
       </c>
       <c r="AD3" t="n">
-        <v>69812.0591111501</v>
+        <v>90342.82951693783</v>
       </c>
       <c r="AE3" t="n">
-        <v>95519.93916651909</v>
+        <v>123611.0449893691</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.059100168501096e-06</v>
+        <v>1.099775409157974e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.530092592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>86403.65023556663</v>
+        <v>111813.7803448075</v>
       </c>
     </row>
     <row r="4">
@@ -32209,28 +32209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.13692337074764</v>
+        <v>88.49710157594315</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.22794454472844</v>
+        <v>121.0856385927316</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.33040036364429</v>
+        <v>109.5293951902341</v>
       </c>
       <c r="AD4" t="n">
-        <v>68136.92337074764</v>
+        <v>88497.10157594315</v>
       </c>
       <c r="AE4" t="n">
-        <v>93227.94454472844</v>
+        <v>121085.6385927316</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.156483125707843e-06</v>
+        <v>1.120945059498934e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>84330.40036364429</v>
+        <v>109529.3951902341</v>
       </c>
     </row>
   </sheetData>
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.96859063068074</v>
+        <v>77.99334531276163</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.68342721148134</v>
+        <v>106.7139358804322</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.98311415833768</v>
+        <v>96.52930761398052</v>
       </c>
       <c r="AD2" t="n">
-        <v>58968.59063068074</v>
+        <v>77993.34531276164</v>
       </c>
       <c r="AE2" t="n">
-        <v>80683.42721148135</v>
+        <v>106713.9358804322</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.335239189667564e-06</v>
+        <v>1.269001026946925e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>72983.11415833769</v>
+        <v>96529.30761398052</v>
       </c>
     </row>
     <row r="3">
@@ -32612,28 +32612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.20131444069862</v>
+        <v>78.22606912277951</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.00185019539754</v>
+        <v>107.0323588643484</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.27114729957847</v>
+        <v>96.81734075522132</v>
       </c>
       <c r="AD3" t="n">
-        <v>59201.31444069862</v>
+        <v>78226.0691227795</v>
       </c>
       <c r="AE3" t="n">
-        <v>81001.85019539754</v>
+        <v>107032.3588643484</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.343585022436819e-06</v>
+        <v>1.270986105774398e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.587962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>73271.14729957847</v>
+        <v>96817.34075522132</v>
       </c>
     </row>
   </sheetData>
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.7943984776439</v>
+        <v>174.8410005885018</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.6917926932512</v>
+        <v>239.225170445638</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.8699794959283</v>
+        <v>216.3938559330111</v>
       </c>
       <c r="AD2" t="n">
-        <v>151794.3984776439</v>
+        <v>174841.0005885018</v>
       </c>
       <c r="AE2" t="n">
-        <v>207691.7926932512</v>
+        <v>239225.170445638</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.164718849544299e-06</v>
+        <v>6.141384392694345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.063657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>187869.9794959283</v>
+        <v>216393.855933011</v>
       </c>
     </row>
     <row r="3">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.8236827705371</v>
+        <v>136.7849440268233</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.7385843130628</v>
+        <v>187.155194943252</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.8751124067426</v>
+        <v>169.2933658118866</v>
       </c>
       <c r="AD3" t="n">
-        <v>113823.6827705371</v>
+        <v>136784.9440268233</v>
       </c>
       <c r="AE3" t="n">
-        <v>155738.5843130628</v>
+        <v>187155.194943252</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.955067665362021e-06</v>
+        <v>7.675118071105095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>140875.1124067426</v>
+        <v>169293.3658118866</v>
       </c>
     </row>
     <row r="4">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.9479951522366</v>
+        <v>118.9945077545434</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.2802798940366</v>
+        <v>162.8135351768751</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.7510742340147</v>
+        <v>147.2748398898709</v>
       </c>
       <c r="AD4" t="n">
-        <v>95947.9951522366</v>
+        <v>118994.5077545434</v>
       </c>
       <c r="AE4" t="n">
-        <v>131280.2798940366</v>
+        <v>162813.5351768751</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.214473574001942e-06</v>
+        <v>8.178515521062871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>118751.0742340147</v>
+        <v>147274.8398898709</v>
       </c>
     </row>
     <row r="5">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.29198590305492</v>
+        <v>115.3384985053618</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.2779667475641</v>
+        <v>157.8112220304025</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.2261748334493</v>
+        <v>142.7499404893055</v>
       </c>
       <c r="AD5" t="n">
-        <v>92291.98590305493</v>
+        <v>115338.4985053618</v>
       </c>
       <c r="AE5" t="n">
-        <v>126277.9667475641</v>
+        <v>157811.2220304025</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.371789990943511e-06</v>
+        <v>8.48380032949338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.666087962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>114226.1748334493</v>
+        <v>142749.9404893055</v>
       </c>
     </row>
     <row r="6">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.2364701771241</v>
+        <v>113.282982779431</v>
       </c>
       <c r="AB6" t="n">
-        <v>123.4655194483932</v>
+        <v>154.9987747312317</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.6821435572159</v>
+        <v>140.205909213072</v>
       </c>
       <c r="AD6" t="n">
-        <v>90236.47017712411</v>
+        <v>113282.982779431</v>
       </c>
       <c r="AE6" t="n">
-        <v>123465.5194483932</v>
+        <v>154998.7747312317</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.448564833859363e-06</v>
+        <v>8.63278791557954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.602430555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>111682.1435572159</v>
+        <v>140205.909213072</v>
       </c>
     </row>
     <row r="7">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.51140120082765</v>
+        <v>111.5579138031345</v>
       </c>
       <c r="AB7" t="n">
-        <v>121.1052039703536</v>
+        <v>152.638459253192</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.547093275676</v>
+        <v>138.0708589315321</v>
       </c>
       <c r="AD7" t="n">
-        <v>88511.40120082765</v>
+        <v>111557.9138031345</v>
       </c>
       <c r="AE7" t="n">
-        <v>121105.2039703536</v>
+        <v>152638.459253192</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.510549717858524e-06</v>
+        <v>8.753074429887195e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>109547.093275676</v>
+        <v>138070.8589315321</v>
       </c>
     </row>
     <row r="8">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.86401396307404</v>
+        <v>109.9105265653809</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.8511760740646</v>
+        <v>150.384431356903</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.5081866382601</v>
+        <v>136.0319522941162</v>
       </c>
       <c r="AD8" t="n">
-        <v>86864.01396307405</v>
+        <v>109910.5265653809</v>
       </c>
       <c r="AE8" t="n">
-        <v>118851.1760740646</v>
+        <v>150384.431356903</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.554199484249354e-06</v>
+        <v>8.837780214761576e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.518518518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>107508.1866382601</v>
+        <v>136031.9522941162</v>
       </c>
     </row>
     <row r="9">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.93711113551238</v>
+        <v>107.813031537227</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.2147026164429</v>
+        <v>147.5145461244346</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.1233345071193</v>
+        <v>133.4359648803244</v>
       </c>
       <c r="AD9" t="n">
-        <v>84937.11113551239</v>
+        <v>107813.031537227</v>
       </c>
       <c r="AE9" t="n">
-        <v>116214.7026164429</v>
+        <v>147514.5461244346</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.60311159557309e-06</v>
+        <v>8.932697991467261e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.480902777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>105123.3345071193</v>
+        <v>133435.9648803244</v>
       </c>
     </row>
     <row r="10">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>84.56438122572622</v>
+        <v>107.4403016274408</v>
       </c>
       <c r="AB10" t="n">
-        <v>115.7047171101907</v>
+        <v>147.0045606181823</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.6620213018144</v>
+        <v>132.9746516750195</v>
       </c>
       <c r="AD10" t="n">
-        <v>84564.38122572622</v>
+        <v>107440.3016274408</v>
       </c>
       <c r="AE10" t="n">
-        <v>115704.7171101907</v>
+        <v>147004.5606181823</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.596962960967274e-06</v>
+        <v>8.920766085222265e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.486689814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>104662.0213018144</v>
+        <v>132974.6516750195</v>
       </c>
     </row>
     <row r="11">
@@ -33863,28 +33863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.64192821568076</v>
+        <v>107.5178486173954</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.8108203229782</v>
+        <v>147.1106638309698</v>
       </c>
       <c r="AC11" t="n">
-        <v>104.7579981728903</v>
+        <v>133.0706285460954</v>
       </c>
       <c r="AD11" t="n">
-        <v>84641.92821568076</v>
+        <v>107517.8486173954</v>
       </c>
       <c r="AE11" t="n">
-        <v>115810.8203229782</v>
+        <v>147110.6638309698</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.596741388549047e-06</v>
+        <v>8.920336106618843e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.486689814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>104757.9981728903</v>
+        <v>133070.6285460954</v>
       </c>
     </row>
   </sheetData>
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.0574467701719</v>
+        <v>221.0179388825448</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.2037628291875</v>
+        <v>302.4064946022564</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.0383510785566</v>
+        <v>273.5452431876872</v>
       </c>
       <c r="AD2" t="n">
-        <v>185057.4467701719</v>
+        <v>221017.9388825448</v>
       </c>
       <c r="AE2" t="n">
-        <v>253203.7628291875</v>
+        <v>302406.4946022564</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.680190788426402e-06</v>
+        <v>5.029089168295422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>229038.3510785566</v>
+        <v>273545.2431876872</v>
       </c>
     </row>
     <row r="3">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.7084406618497</v>
+        <v>154.5968507240778</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.8410549628907</v>
+        <v>211.5262314922874</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.7727156822795</v>
+        <v>191.3384648376544</v>
       </c>
       <c r="AD3" t="n">
-        <v>130708.4406618497</v>
+        <v>154596.8507240778</v>
       </c>
       <c r="AE3" t="n">
-        <v>178841.0549628907</v>
+        <v>211526.2314922874</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.542147747091028e-06</v>
+        <v>6.646458507476765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.360532407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>161772.7156822796</v>
+        <v>191338.4648376544</v>
       </c>
     </row>
     <row r="4">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.13860009151</v>
+        <v>145.027010153738</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.7471769029893</v>
+        <v>198.432353432386</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.9284989670377</v>
+        <v>179.4942481224125</v>
       </c>
       <c r="AD4" t="n">
-        <v>121138.60009151</v>
+        <v>145027.010153738</v>
       </c>
       <c r="AE4" t="n">
-        <v>165747.1769029893</v>
+        <v>198432.353432386</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.857935297714011e-06</v>
+        <v>7.238999813557819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.00462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>149928.4989670377</v>
+        <v>179494.2481224125</v>
       </c>
     </row>
     <row r="5">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.5477753401892</v>
+        <v>128.5214367484378</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.0468785427129</v>
+        <v>175.8486997247588</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.39468522219</v>
+        <v>159.0659466282771</v>
       </c>
       <c r="AD5" t="n">
-        <v>104547.7753401892</v>
+        <v>128521.4367484378</v>
       </c>
       <c r="AE5" t="n">
-        <v>143046.8785427129</v>
+        <v>175848.6997247588</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.023942613879913e-06</v>
+        <v>7.550494651609217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.839699074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>129394.68522219</v>
+        <v>159065.9466282771</v>
       </c>
     </row>
     <row r="6">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.7624210018135</v>
+        <v>125.7360824100621</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.2358338557883</v>
+        <v>172.0376550378342</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.9473612913495</v>
+        <v>155.6186226974365</v>
       </c>
       <c r="AD6" t="n">
-        <v>101762.4210018135</v>
+        <v>125736.0824100621</v>
       </c>
       <c r="AE6" t="n">
-        <v>139235.8338557883</v>
+        <v>172037.6550378343</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.127924045356175e-06</v>
+        <v>7.745604601616974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.741319444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>125947.3612913495</v>
+        <v>155618.6226974365</v>
       </c>
     </row>
     <row r="7">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.76472482782245</v>
+        <v>123.7383862360711</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.5024978184</v>
+        <v>169.304319000446</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.4748910091074</v>
+        <v>153.1461524151945</v>
       </c>
       <c r="AD7" t="n">
-        <v>99764.72482782244</v>
+        <v>123738.3862360711</v>
       </c>
       <c r="AE7" t="n">
-        <v>136502.4978184</v>
+        <v>169304.3190004459</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.192778993633208e-06</v>
+        <v>7.867297922592037e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.683449074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>123474.8910091074</v>
+        <v>153146.1524151945</v>
       </c>
     </row>
     <row r="8">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.12762710121315</v>
+        <v>122.1012885094617</v>
       </c>
       <c r="AB8" t="n">
-        <v>134.2625484851999</v>
+        <v>167.0643696672458</v>
       </c>
       <c r="AC8" t="n">
-        <v>121.4487192964785</v>
+        <v>151.1199807025656</v>
       </c>
       <c r="AD8" t="n">
-        <v>98127.62710121315</v>
+        <v>122101.2885094617</v>
       </c>
       <c r="AE8" t="n">
-        <v>134262.5484851999</v>
+        <v>167064.3696672458</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.252776493109245e-06</v>
+        <v>7.979876764382961e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.631365740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>121448.7192964785</v>
+        <v>151119.9807025656</v>
       </c>
     </row>
     <row r="9">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.92206264231986</v>
+        <v>120.8957240505685</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.6130420067927</v>
+        <v>165.4148631888386</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.9566394012731</v>
+        <v>149.6279008073602</v>
       </c>
       <c r="AD9" t="n">
-        <v>96922.06264231986</v>
+        <v>120895.7240505685</v>
       </c>
       <c r="AE9" t="n">
-        <v>132613.0420067926</v>
+        <v>165414.8631888386</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.275622516041401e-06</v>
+        <v>8.022744864281996e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>119956.6394012731</v>
+        <v>149627.9008073602</v>
       </c>
     </row>
     <row r="10">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>95.54307699903829</v>
+        <v>119.5167384072869</v>
       </c>
       <c r="AB10" t="n">
-        <v>130.7262530131028</v>
+        <v>163.5280741951487</v>
       </c>
       <c r="AC10" t="n">
-        <v>118.2499229010155</v>
+        <v>147.9211843071025</v>
       </c>
       <c r="AD10" t="n">
-        <v>95543.0769990383</v>
+        <v>119516.7384072869</v>
       </c>
       <c r="AE10" t="n">
-        <v>130726.2530131028</v>
+        <v>163528.0741951487</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.321688211813482e-06</v>
+        <v>8.109182177863461e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.57349537037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>118249.9229010155</v>
+        <v>147921.1843071025</v>
       </c>
     </row>
     <row r="11">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.52917526718474</v>
+        <v>118.5028366754334</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.338987933394</v>
+        <v>162.1408091154399</v>
       </c>
       <c r="AC11" t="n">
-        <v>116.9950564534748</v>
+        <v>146.6663178595618</v>
       </c>
       <c r="AD11" t="n">
-        <v>94529.17526718474</v>
+        <v>118502.8366754334</v>
       </c>
       <c r="AE11" t="n">
-        <v>129338.987933394</v>
+        <v>162140.8091154399</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.345388291677682e-06</v>
+        <v>8.153652823553114e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>116995.0564534748</v>
+        <v>146666.3178595619</v>
       </c>
     </row>
     <row r="12">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>93.22293803524316</v>
+        <v>117.1965994434918</v>
       </c>
       <c r="AB12" t="n">
-        <v>127.5517365255328</v>
+        <v>160.3535577075788</v>
       </c>
       <c r="AC12" t="n">
-        <v>115.3783778115563</v>
+        <v>145.0496392176433</v>
       </c>
       <c r="AD12" t="n">
-        <v>93222.93803524316</v>
+        <v>117196.5994434918</v>
       </c>
       <c r="AE12" t="n">
-        <v>127551.7365255328</v>
+        <v>160353.5577075788</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.368554585959354e-06</v>
+        <v>8.197121878123631e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.53587962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>115378.3778115563</v>
+        <v>145049.6392176433</v>
       </c>
     </row>
     <row r="13">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>91.97597902002212</v>
+        <v>115.9496404282707</v>
       </c>
       <c r="AB13" t="n">
-        <v>125.845592188959</v>
+        <v>158.647413371005</v>
       </c>
       <c r="AC13" t="n">
-        <v>113.8350654958759</v>
+        <v>143.506326901963</v>
       </c>
       <c r="AD13" t="n">
-        <v>91975.97902002212</v>
+        <v>115949.6404282707</v>
       </c>
       <c r="AE13" t="n">
-        <v>125845.592188959</v>
+        <v>158647.413371005</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.385795860274978e-06</v>
+        <v>8.229473271271735e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.521412037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>113835.0654958759</v>
+        <v>143506.326901963</v>
       </c>
     </row>
     <row r="14">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>92.09864036851945</v>
+        <v>116.0723017767681</v>
       </c>
       <c r="AB14" t="n">
-        <v>126.0134228574098</v>
+        <v>158.8152440394557</v>
       </c>
       <c r="AC14" t="n">
-        <v>113.9868786408816</v>
+        <v>143.6581400469687</v>
       </c>
       <c r="AD14" t="n">
-        <v>92098.64036851945</v>
+        <v>116072.3017767681</v>
       </c>
       <c r="AE14" t="n">
-        <v>126013.4228574098</v>
+        <v>158815.2440394557</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.389692495027424e-06</v>
+        <v>8.23678488644143e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.518518518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>113986.8786408816</v>
+        <v>143658.1400469687</v>
       </c>
     </row>
     <row r="15">
@@ -35538,28 +35538,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>92.16081773526621</v>
+        <v>116.1344791435148</v>
       </c>
       <c r="AB15" t="n">
-        <v>126.0984966736645</v>
+        <v>158.9003178557104</v>
       </c>
       <c r="AC15" t="n">
-        <v>114.0638331315148</v>
+        <v>143.7350945376019</v>
       </c>
       <c r="AD15" t="n">
-        <v>92160.8177352662</v>
+        <v>116134.4791435148</v>
       </c>
       <c r="AE15" t="n">
-        <v>126098.4966736645</v>
+        <v>158900.3178557104</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.387076945673043e-06</v>
+        <v>8.231877089957662e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.521412037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>114063.8331315148</v>
+        <v>143735.0945376019</v>
       </c>
     </row>
   </sheetData>
@@ -35835,28 +35835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.56583111813481</v>
+        <v>72.88621704460137</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.65937741037784</v>
+        <v>99.72613767334126</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.53399121544257</v>
+        <v>90.20841506033572</v>
       </c>
       <c r="AD2" t="n">
-        <v>54565.83111813481</v>
+        <v>72886.21704460136</v>
       </c>
       <c r="AE2" t="n">
-        <v>74659.37741037784</v>
+        <v>99726.13767334126</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.288228087110603e-06</v>
+        <v>1.322545712471075e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.752893518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>67533.99121544257</v>
+        <v>90208.41506033573</v>
       </c>
     </row>
   </sheetData>
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.8063180868364</v>
+        <v>128.3489606895014</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.1371163685478</v>
+        <v>175.6127103718154</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.1899950871043</v>
+        <v>158.8524797679654</v>
       </c>
       <c r="AD2" t="n">
-        <v>106806.3180868364</v>
+        <v>128348.9606895013</v>
       </c>
       <c r="AE2" t="n">
-        <v>146137.1163685478</v>
+        <v>175612.7103718154</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925444986083698e-06</v>
+        <v>8.08360392559898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.334490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>132189.9950871042</v>
+        <v>158852.4797679654</v>
       </c>
     </row>
     <row r="3">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.59242446976958</v>
+        <v>104.2203184184552</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.0065988801</v>
+        <v>142.5988375360168</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.22140768877</v>
+        <v>128.9894046203434</v>
       </c>
       <c r="AD3" t="n">
-        <v>82592.42446976958</v>
+        <v>104220.3184184552</v>
       </c>
       <c r="AE3" t="n">
-        <v>113006.5988801</v>
+        <v>142598.8375360168</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.578402281104615e-06</v>
+        <v>9.42822808209379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>102221.40768877</v>
+        <v>128989.4046203434</v>
       </c>
     </row>
     <row r="4">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.55068863518042</v>
+        <v>100.178582583866</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.4765176024173</v>
+        <v>137.0687562583341</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.21910960670974</v>
+        <v>123.9871065382831</v>
       </c>
       <c r="AD4" t="n">
-        <v>78550.68863518043</v>
+        <v>100178.582583866</v>
       </c>
       <c r="AE4" t="n">
-        <v>107476.5176024173</v>
+        <v>137068.7562583341</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.789979962276873e-06</v>
+        <v>9.863926501039031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.550347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>97219.10960670974</v>
+        <v>123987.1065382831</v>
       </c>
     </row>
     <row r="5">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.68718703564824</v>
+        <v>97.14448878374158</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.5585483851646</v>
+        <v>132.9173752662345</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.67506587264606</v>
+        <v>120.2319275215684</v>
       </c>
       <c r="AD5" t="n">
-        <v>75687.18703564824</v>
+        <v>97144.48878374157</v>
       </c>
       <c r="AE5" t="n">
-        <v>103558.5483851646</v>
+        <v>132917.3752662345</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.911024265009209e-06</v>
+        <v>1.01131910313553e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>93675.06587264605</v>
+        <v>120231.9275215684</v>
       </c>
     </row>
     <row r="6">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.62239289856389</v>
+        <v>96.07969464665725</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.1016500714045</v>
+        <v>131.4604769524745</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.35721188918117</v>
+        <v>118.9140735381035</v>
       </c>
       <c r="AD6" t="n">
-        <v>74622.39289856389</v>
+        <v>96079.69464665724</v>
       </c>
       <c r="AE6" t="n">
-        <v>102101.6500714045</v>
+        <v>131460.4769524745</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.949295193167905e-06</v>
+        <v>1.019200172063937e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>92357.21188918117</v>
+        <v>118914.0735381035</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.1850042065191</v>
+        <v>159.8835853382677</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6518896447783</v>
+        <v>218.7597750256887</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.1742356155777</v>
+        <v>197.8816491285723</v>
       </c>
       <c r="AD2" t="n">
-        <v>126185.0042065191</v>
+        <v>159883.5853382677</v>
       </c>
       <c r="AE2" t="n">
-        <v>172651.8896447783</v>
+        <v>218759.7750256887</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.44106300037876e-06</v>
+        <v>6.817379343994145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.759837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>156174.2356155777</v>
+        <v>197881.6491285723</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.76160789850071</v>
+        <v>117.2842225560475</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.6570125137643</v>
+        <v>160.4734475158363</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.282729214245</v>
+        <v>145.1580869108672</v>
       </c>
       <c r="AD3" t="n">
-        <v>94761.60789850072</v>
+        <v>117284.2225560475</v>
       </c>
       <c r="AE3" t="n">
-        <v>129657.0125137643</v>
+        <v>160473.4475158363</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.169280589741105e-06</v>
+        <v>8.260112461959613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>117282.729214245</v>
+        <v>145158.0869108672</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.04561206065026</v>
+        <v>111.5682267181971</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.8361348364823</v>
+        <v>152.6525698385543</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.2082651258095</v>
+        <v>138.0836228224318</v>
       </c>
       <c r="AD4" t="n">
-        <v>89045.61206065025</v>
+        <v>111568.2267181971</v>
       </c>
       <c r="AE4" t="n">
-        <v>121836.1348364823</v>
+        <v>152652.5698385543</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.429754501310008e-06</v>
+        <v>8.77615923709385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>110208.2651258095</v>
+        <v>138083.6228224318</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.96782416696519</v>
+        <v>108.490438824512</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.6249696579256</v>
+        <v>148.4414046599977</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.3990076414855</v>
+        <v>134.2743653381078</v>
       </c>
       <c r="AD5" t="n">
-        <v>85967.82416696519</v>
+        <v>108490.438824512</v>
       </c>
       <c r="AE5" t="n">
-        <v>117624.9696579256</v>
+        <v>148441.4046599977</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.567915478741493e-06</v>
+        <v>9.049881570449494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>106399.0076414855</v>
+        <v>134274.3653381078</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.91425002493654</v>
+        <v>106.4368646824833</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.8151789195064</v>
+        <v>145.6316139215784</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.857379387574</v>
+        <v>131.7327370841963</v>
       </c>
       <c r="AD6" t="n">
-        <v>83914.25002493654</v>
+        <v>106436.8646824833</v>
       </c>
       <c r="AE6" t="n">
-        <v>114815.1789195063</v>
+        <v>145631.6139215784</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642005081141254e-06</v>
+        <v>9.196666713572205e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.527199074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>103857.379387574</v>
+        <v>131732.7370841963</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.7714893755609</v>
+        <v>104.1235118325155</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.883359267104</v>
+        <v>142.4663824943291</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.2053684879613</v>
+        <v>128.8695909019325</v>
       </c>
       <c r="AD7" t="n">
-        <v>81771.48937556091</v>
+        <v>104123.5118325155</v>
       </c>
       <c r="AE7" t="n">
-        <v>111883.359267104</v>
+        <v>142466.3824943291</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.714170278283877e-06</v>
+        <v>9.339639255574847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.475115740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>101205.3684879613</v>
+        <v>128869.5909019325</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.93327602352825</v>
+        <v>103.2852984804829</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7364787794902</v>
+        <v>141.3195020067154</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.1679446644281</v>
+        <v>127.8321670783994</v>
       </c>
       <c r="AD8" t="n">
-        <v>80933.27602352825</v>
+        <v>103285.2984804829</v>
       </c>
       <c r="AE8" t="n">
-        <v>110736.4787794902</v>
+        <v>141319.5020067154</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.724471506425019e-06</v>
+        <v>9.360047885099928e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.466435185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>100167.9446644281</v>
+        <v>127832.1670783994</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.96750398321737</v>
+        <v>103.319526440172</v>
       </c>
       <c r="AB9" t="n">
-        <v>110.7833109839679</v>
+        <v>141.366334211193</v>
       </c>
       <c r="AC9" t="n">
-        <v>100.2103072690399</v>
+        <v>127.8745296830111</v>
       </c>
       <c r="AD9" t="n">
-        <v>80967.50398321736</v>
+        <v>103319.526440172</v>
       </c>
       <c r="AE9" t="n">
-        <v>110783.3109839679</v>
+        <v>141366.3342111931</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.722886702095613e-06</v>
+        <v>9.356908095942225e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.466435185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>100210.3072690399</v>
+        <v>127874.5296830111</v>
       </c>
     </row>
   </sheetData>
